--- a/IL Data/IL Data.xlsx
+++ b/IL Data/IL Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kan\Documents\GitHub\SMILE_to_Feature\IL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D101A4B5-62CA-42C1-90CA-3C29EE0EAA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E0E73-4C99-4E48-9D47-7264FDAE6261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA42A3CB-3CED-4FC6-98DC-A6630CE6366C}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
   <si>
     <t>[BMIM]OAc-water (60-40 wt%) 298 1.011 126.156 124.783 26.97 727.38 090.76 093.24 
 [BMIM]OAc-water (60-40 wt%) 313 0.998 126.156 126.408 26.65 710.22 089.78 092.38 
@@ -771,9 +771,6 @@
     <t>CCCC[N+]1=CC=CC(=C1)C</t>
   </si>
   <si>
-    <t>Triisobutyl-methylphosphonium</t>
-  </si>
-  <si>
     <t>CC1=CC=C(C=C1)S(=O)(=O)[O-]</t>
   </si>
   <si>
@@ -790,16 +787,45 @@
   </si>
   <si>
     <t>F[Sb-](F)(F)(F)(F)F</t>
+  </si>
+  <si>
+    <t>1,3-dihexyloxymethyl-imidazolium bis(trifluoromethylsulfonyl)-amide</t>
+  </si>
+  <si>
+    <t>CC[S+](CC)CC</t>
+  </si>
+  <si>
+    <t>CC(C)C[P+](C)(CC(C)C)CC(C)C</t>
+  </si>
+  <si>
+    <t>marciniak2010.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
@@ -823,15 +849,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1215,16 +1243,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48153BF9-F4B1-4435-A50B-9968C54824D3}">
   <dimension ref="B3:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="84.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.21875" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1232,7 +1260,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="str" cm="1">
@@ -1997,6 +2025,9 @@
       <c r="L31" t="s">
         <v>18</v>
       </c>
+      <c r="O31" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="32" spans="3:17">
       <c r="D32" t="s">
@@ -2113,7 +2144,7 @@
         <v>[MDEGSO_{4} ]</v>
       </c>
       <c r="Q35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="4:17">
@@ -2142,7 +2173,7 @@
         <v>[OcSO_{4} ]</v>
       </c>
       <c r="Q36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="4:17">
@@ -2155,6 +2186,13 @@
       <c r="I37" t="s">
         <v>64</v>
       </c>
+      <c r="J37" s="2" t="str" cm="1">
+        <f t="array" ref="J37">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I37,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I37,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCC[N+]1(CCCC1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L37">
         <v>24.96</v>
       </c>
@@ -2168,7 +2206,7 @@
         <v>[TOS]</v>
       </c>
       <c r="Q37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="4:17">
@@ -2181,6 +2219,13 @@
       <c r="I38" t="s">
         <v>72</v>
       </c>
+      <c r="J38" s="2" t="str" cm="1">
+        <f t="array" ref="J38">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I38,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I38,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L38">
         <v>22.67</v>
       </c>
@@ -2188,13 +2233,13 @@
         <v>[P_{1,i4,i4,i4} ]</v>
       </c>
       <c r="O38" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P38" t="str">
         <v>[NTf_{2} ]</v>
       </c>
       <c r="Q38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="4:17">
@@ -2207,17 +2252,27 @@
       <c r="I39" t="s">
         <v>80</v>
       </c>
+      <c r="J39" s="2" t="str" cm="1">
+        <f t="array" ref="J39">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I39,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I39,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCC[N+]1=CC=CC(=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L39">
         <v>22.47</v>
       </c>
       <c r="N39" t="str">
         <v>[C_{6} OCmim]</v>
       </c>
+      <c r="O39" t="s">
+        <v>197</v>
+      </c>
       <c r="P39" t="str">
         <v>[BF_{4} ]</v>
       </c>
       <c r="Q39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="4:17">
@@ -2230,11 +2285,21 @@
       <c r="I40" t="s">
         <v>87</v>
       </c>
+      <c r="J40" s="2" t="str" cm="1">
+        <f t="array" ref="J40">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I40,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I40,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCC[N+]1(CCCC1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L40">
         <v>22.83</v>
       </c>
       <c r="N40" t="str">
         <v>[(C_{6} OC)_{2} im]</v>
+      </c>
+      <c r="O40" t="s">
+        <v>226</v>
       </c>
       <c r="P40" t="str">
         <v xml:space="preserve">[CF_{3} SO_{3} ] </v>
@@ -2253,11 +2318,21 @@
       <c r="I41" t="s">
         <v>95</v>
       </c>
+      <c r="J41" s="2" t="str" cm="1">
+        <f t="array" ref="J41">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I41,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I41,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L41">
         <v>24.8</v>
       </c>
       <c r="N41" t="str">
         <v>[Et_{3} S]</v>
+      </c>
+      <c r="O41" t="s">
+        <v>227</v>
       </c>
       <c r="P41" t="str">
         <v xml:space="preserve">[PF_{6} ] </v>
@@ -2276,6 +2351,13 @@
       <c r="I42" t="s">
         <v>97</v>
       </c>
+      <c r="J42" s="2" t="str" cm="1">
+        <f t="array" ref="J42">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I42,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I42,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L42">
         <v>22.83</v>
       </c>
@@ -2286,7 +2368,7 @@
         <v xml:space="preserve">[SbF_{6} ] </v>
       </c>
       <c r="Q42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="4:17">
@@ -2299,6 +2381,13 @@
       <c r="I43" t="s">
         <v>101</v>
       </c>
+      <c r="J43" s="2" t="str" cm="1">
+        <f t="array" ref="J43">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I43,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I43,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CC(C)C[P+](C)(CC(C)C)CC(C)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L43">
         <v>24.33</v>
       </c>
@@ -2312,7 +2401,7 @@
         <v xml:space="preserve">[NTf_{2} ] </v>
       </c>
       <c r="Q43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="4:17">
@@ -2325,6 +2414,13 @@
       <c r="I44" t="s">
         <v>107</v>
       </c>
+      <c r="J44" s="2" t="str" cm="1">
+        <f t="array" ref="J44">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I44,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I44,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCC[N+]1=CC=C(C=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L44">
         <v>23.06</v>
       </c>
@@ -2335,7 +2431,7 @@
         <v xml:space="preserve">[BF_{4} ] </v>
       </c>
       <c r="Q44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="4:17">
@@ -2348,6 +2444,13 @@
       <c r="I45" t="s">
         <v>112</v>
       </c>
+      <c r="J45" s="2" t="str" cm="1">
+        <f t="array" ref="J45">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I45,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I45,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCC[N+]1=CC=C(C=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L45">
         <v>20.61</v>
       </c>
@@ -2365,6 +2468,13 @@
       <c r="I46" t="s">
         <v>120</v>
       </c>
+      <c r="J46" s="2" t="str" cm="1">
+        <f t="array" ref="J46">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I46,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I46,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L46">
         <v>20.260000000000002</v>
       </c>
@@ -2379,6 +2489,13 @@
       <c r="I47" t="s">
         <v>126</v>
       </c>
+      <c r="J47" s="2" t="str" cm="1">
+        <f t="array" ref="J47">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I47,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I47,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>1,3-dihexyloxymethyl-imidazolium bis(trifluoromethylsulfonyl)-amide.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L47">
         <v>19.600000000000001</v>
       </c>
@@ -2393,6 +2510,13 @@
       <c r="I48" t="s">
         <v>134</v>
       </c>
+      <c r="J48" s="2" t="str" cm="1">
+        <f t="array" ref="J48">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I48,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I48,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CC[S+](CC)CC.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L48">
         <v>21.05</v>
       </c>
@@ -2407,6 +2531,13 @@
       <c r="I49" t="s">
         <v>141</v>
       </c>
+      <c r="J49" s="2" t="str" cm="1">
+        <f t="array" ref="J49">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I49,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I49,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L49">
         <v>20.25</v>
       </c>
@@ -2421,6 +2552,13 @@
       <c r="I50" t="s">
         <v>201</v>
       </c>
+      <c r="J50" s="2" t="str" cm="1">
+        <f t="array" ref="J50">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I50,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I50,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L50">
         <v>27.6</v>
       </c>
@@ -2435,6 +2573,13 @@
       <c r="I51" t="s">
         <v>202</v>
       </c>
+      <c r="J51" s="2" t="str" cm="1">
+        <f t="array" ref="J51">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I51,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I51,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L51">
         <v>24.4</v>
       </c>
@@ -2449,6 +2594,13 @@
       <c r="I52" t="s">
         <v>203</v>
       </c>
+      <c r="J52" s="2" t="str" cm="1">
+        <f t="array" ref="J52">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I52,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I52,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L52">
         <v>24.3</v>
       </c>
@@ -2463,6 +2615,13 @@
       <c r="I53" t="s">
         <v>203</v>
       </c>
+      <c r="J53" s="2" t="str" cm="1">
+        <f t="array" ref="J53">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I53,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I53,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L53">
         <v>31.6</v>
       </c>
@@ -2477,6 +2636,13 @@
       <c r="I54" t="s">
         <v>204</v>
       </c>
+      <c r="J54" s="2" t="str" cm="1">
+        <f t="array" ref="J54">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I54,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I54,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L54">
         <v>26.7</v>
       </c>
@@ -2491,6 +2657,13 @@
       <c r="I55" t="s">
         <v>204</v>
       </c>
+      <c r="J55" s="2" t="str" cm="1">
+        <f t="array" ref="J55">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I55,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I55,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L55">
         <v>25.5</v>
       </c>
@@ -2505,6 +2678,13 @@
       <c r="I56" t="s">
         <v>205</v>
       </c>
+      <c r="J56" s="2" t="str" cm="1">
+        <f t="array" ref="J56">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I56,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I56,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L56">
         <v>24.9</v>
       </c>
@@ -2519,6 +2699,13 @@
       <c r="I57" t="s">
         <v>205</v>
       </c>
+      <c r="J57" s="2" t="str" cm="1">
+        <f t="array" ref="J57">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I57,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I57,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L57">
         <v>25.4</v>
       </c>
@@ -2533,6 +2720,13 @@
       <c r="I58" t="s">
         <v>206</v>
       </c>
+      <c r="J58" s="2" t="str" cm="1">
+        <f t="array" ref="J58">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I58,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I58,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L58">
         <v>29.8</v>
       </c>
@@ -2547,6 +2741,13 @@
       <c r="I59" t="s">
         <v>206</v>
       </c>
+      <c r="J59" s="2" t="str" cm="1">
+        <f t="array" ref="J59">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I59,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I59,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L59">
         <v>30.2</v>
       </c>
@@ -2561,6 +2762,13 @@
       <c r="I60" t="s">
         <v>207</v>
       </c>
+      <c r="J60" s="2" t="str" cm="1">
+        <f t="array" ref="J60">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I60,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I60,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L60">
         <v>31.5</v>
       </c>
@@ -2575,6 +2783,13 @@
       <c r="I61" t="s">
         <v>208</v>
       </c>
+      <c r="J61" s="2" t="str" cm="1">
+        <f t="array" ref="J61">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I61,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I61,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>.</v>
+      </c>
       <c r="L61">
         <v>24.2</v>
       </c>
@@ -2589,6 +2804,13 @@
       <c r="I62" t="s">
         <v>209</v>
       </c>
+      <c r="J62" s="2" t="str" cm="1">
+        <f t="array" ref="J62">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I62,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I62,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L62">
         <v>23.3</v>
       </c>
@@ -2603,6 +2825,13 @@
       <c r="I63" t="s">
         <v>210</v>
       </c>
+      <c r="J63" s="2" t="str" cm="1">
+        <f t="array" ref="J63">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I63,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I63,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L63">
         <v>25.6</v>
       </c>
@@ -2617,6 +2846,13 @@
       <c r="I64" t="s">
         <v>211</v>
       </c>
+      <c r="J64" s="2" t="str" cm="1">
+        <f t="array" ref="J64">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I64,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I64,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L64">
         <v>28.6</v>
       </c>
@@ -2631,6 +2867,13 @@
       <c r="I65" t="s">
         <v>212</v>
       </c>
+      <c r="J65" s="2" t="str" cm="1">
+        <f t="array" ref="J65">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I65,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I65,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L65">
         <v>22.5</v>
       </c>
@@ -2645,6 +2888,13 @@
       <c r="I66" t="s">
         <v>213</v>
       </c>
+      <c r="J66" s="2" t="str" cm="1">
+        <f t="array" ref="J66">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I66,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I66,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L66">
         <v>25</v>
       </c>
@@ -2659,6 +2909,13 @@
       <c r="I67" t="s">
         <v>214</v>
       </c>
+      <c r="J67" s="2" t="str" cm="1">
+        <f t="array" ref="J67">_xlfn.LET(_xlpm.a,_xlfn.UNIQUE(_xlfn.TEXTBEFORE(I67,"[",2)),_xlpm.b,_xlfn.XLOOKUP(_xlpm.a,$N$32:$N$45,$O$32:$O$45,,0),_xlpm.c,_xlfn.UNIQUE(_xlfn.TEXTAFTER(I67,"]",1)),_xlpm.d,_xlfn.XLOOKUP(_xlpm.b,$P$32:$P$45,$Q$32:$Q$45,,-1),
+_xlpm.e,_xlpm.b&amp;"."&amp;_xlpm.d,
+_xlpm.f,_xlpm.c&amp;_xlpm.d,
+_xlpm.e)</f>
+        <v>CCCCCCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</v>
+      </c>
       <c r="L67">
         <v>27.8</v>
       </c>
@@ -2672,6 +2929,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O31" r:id="rId1" display="../../../../Downloads/marciniak2010.pdf" xr:uid="{F1C50640-8A98-47D9-A703-6053C833C5AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2703,7 +2963,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
@@ -2714,7 +2974,6 @@
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1">
-      <c r="A3" s="2"/>
       <c r="B3">
         <v>328.15</v>
       </c>
@@ -2723,7 +2982,6 @@
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1">
-      <c r="A4" s="2"/>
       <c r="B4">
         <v>338.15</v>
       </c>
@@ -2732,7 +2990,6 @@
       </c>
     </row>
     <row r="5" spans="1:3" hidden="1">
-      <c r="A5" s="2"/>
       <c r="B5">
         <v>348.15</v>
       </c>
@@ -2741,7 +2998,6 @@
       </c>
     </row>
     <row r="6" spans="1:3" hidden="1">
-      <c r="A6" s="2"/>
       <c r="B6">
         <v>358.15</v>
       </c>
@@ -2750,7 +3006,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7">
@@ -2761,7 +3017,6 @@
       </c>
     </row>
     <row r="8" spans="1:3" hidden="1">
-      <c r="A8" s="2"/>
       <c r="B8">
         <v>308.14999999999998</v>
       </c>
@@ -2770,7 +3025,6 @@
       </c>
     </row>
     <row r="9" spans="1:3" hidden="1">
-      <c r="A9" s="2"/>
       <c r="B9">
         <v>318.14999999999998</v>
       </c>
@@ -2779,7 +3033,6 @@
       </c>
     </row>
     <row r="10" spans="1:3" hidden="1">
-      <c r="A10" s="2"/>
       <c r="B10">
         <v>328.15</v>
       </c>
@@ -2788,7 +3041,6 @@
       </c>
     </row>
     <row r="11" spans="1:3" hidden="1">
-      <c r="A11" s="2"/>
       <c r="B11">
         <v>338.15</v>
       </c>
@@ -2797,7 +3049,6 @@
       </c>
     </row>
     <row r="12" spans="1:3" hidden="1">
-      <c r="A12" s="2"/>
       <c r="B12">
         <v>348.15</v>
       </c>
@@ -2806,7 +3057,6 @@
       </c>
     </row>
     <row r="13" spans="1:3" hidden="1">
-      <c r="A13" s="2"/>
       <c r="B13">
         <v>358.15</v>
       </c>
@@ -2815,7 +3065,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="B14">
@@ -2826,7 +3076,6 @@
       </c>
     </row>
     <row r="15" spans="1:3" hidden="1">
-      <c r="A15" s="2"/>
       <c r="B15">
         <v>318.14999999999998</v>
       </c>
@@ -2835,7 +3084,6 @@
       </c>
     </row>
     <row r="16" spans="1:3" hidden="1">
-      <c r="A16" s="2"/>
       <c r="B16">
         <v>328.15</v>
       </c>
@@ -2844,7 +3092,6 @@
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1">
-      <c r="A17" s="2"/>
       <c r="B17">
         <v>338.15</v>
       </c>
@@ -2853,7 +3100,6 @@
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1">
-      <c r="A18" s="2"/>
       <c r="B18">
         <v>348.15</v>
       </c>
@@ -2862,7 +3108,6 @@
       </c>
     </row>
     <row r="19" spans="1:3" hidden="1">
-      <c r="A19" s="2"/>
       <c r="B19">
         <v>358.15</v>
       </c>
@@ -2871,7 +3116,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20">
@@ -2882,7 +3127,6 @@
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1">
-      <c r="A21" s="2"/>
       <c r="B21">
         <v>318.14999999999998</v>
       </c>
@@ -2891,7 +3135,6 @@
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1">
-      <c r="A22" s="2"/>
       <c r="B22">
         <v>328.15</v>
       </c>
@@ -2900,7 +3143,6 @@
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1">
-      <c r="A23" s="2"/>
       <c r="B23">
         <v>338.15</v>
       </c>
@@ -2909,7 +3151,6 @@
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1">
-      <c r="A24" s="2"/>
       <c r="B24">
         <v>348.15</v>
       </c>
@@ -2918,7 +3159,6 @@
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1">
-      <c r="A25" s="2"/>
       <c r="B25">
         <v>358.15</v>
       </c>
@@ -2927,7 +3167,6 @@
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1">
-      <c r="A26" s="2"/>
       <c r="B26">
         <v>368.15</v>
       </c>
@@ -2936,7 +3175,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>57</v>
       </c>
       <c r="B27">
@@ -2947,7 +3186,6 @@
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1">
-      <c r="A28" s="2"/>
       <c r="B28">
         <v>308.14999999999998</v>
       </c>
@@ -2956,7 +3194,6 @@
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1">
-      <c r="A29" s="2"/>
       <c r="B29">
         <v>318.14999999999998</v>
       </c>
@@ -2965,7 +3202,6 @@
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1">
-      <c r="A30" s="2"/>
       <c r="B30">
         <v>328.15</v>
       </c>
@@ -2974,7 +3210,6 @@
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1">
-      <c r="A31" s="2"/>
       <c r="B31">
         <v>338.15</v>
       </c>
@@ -2983,7 +3218,6 @@
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1">
-      <c r="A32" s="2"/>
       <c r="B32">
         <v>348.15</v>
       </c>
@@ -2992,7 +3226,6 @@
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1">
-      <c r="A33" s="2"/>
       <c r="B33">
         <v>358.15</v>
       </c>
@@ -3001,7 +3234,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
       <c r="B34">
@@ -3012,7 +3245,6 @@
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1">
-      <c r="A35" s="2"/>
       <c r="B35">
         <v>308.14999999999998</v>
       </c>
@@ -3021,7 +3253,6 @@
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1">
-      <c r="A36" s="2"/>
       <c r="B36">
         <v>318.14999999999998</v>
       </c>
@@ -3030,7 +3261,6 @@
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1">
-      <c r="A37" s="2"/>
       <c r="B37">
         <v>328.15</v>
       </c>
@@ -3039,7 +3269,6 @@
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1">
-      <c r="A38" s="2"/>
       <c r="B38">
         <v>338.15</v>
       </c>
@@ -3048,7 +3277,6 @@
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1">
-      <c r="A39" s="2"/>
       <c r="B39">
         <v>348.15</v>
       </c>
@@ -3057,7 +3285,6 @@
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1">
-      <c r="A40" s="2"/>
       <c r="B40">
         <v>358.15</v>
       </c>
@@ -3066,7 +3293,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>64</v>
       </c>
       <c r="B41">
@@ -3077,7 +3304,6 @@
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1">
-      <c r="A42" s="2"/>
       <c r="B42">
         <v>308.14999999999998</v>
       </c>
@@ -3086,7 +3312,6 @@
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1">
-      <c r="A43" s="2"/>
       <c r="B43">
         <v>318.14999999999998</v>
       </c>
@@ -3095,7 +3320,6 @@
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1">
-      <c r="A44" s="2"/>
       <c r="B44">
         <v>328.15</v>
       </c>
@@ -3104,7 +3328,6 @@
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1">
-      <c r="A45" s="2"/>
       <c r="B45">
         <v>338.15</v>
       </c>
@@ -3113,7 +3336,6 @@
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1">
-      <c r="A46" s="2"/>
       <c r="B46">
         <v>348.15</v>
       </c>
@@ -3122,7 +3344,6 @@
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1">
-      <c r="A47" s="2"/>
       <c r="B47">
         <v>358.15</v>
       </c>
@@ -3131,7 +3352,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
       <c r="B48">
@@ -3142,7 +3363,6 @@
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1">
-      <c r="A49" s="2"/>
       <c r="B49">
         <v>308.14999999999998</v>
       </c>
@@ -3151,7 +3371,6 @@
       </c>
     </row>
     <row r="50" spans="1:3" hidden="1">
-      <c r="A50" s="2"/>
       <c r="B50">
         <v>318.14999999999998</v>
       </c>
@@ -3160,7 +3379,6 @@
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1">
-      <c r="A51" s="2"/>
       <c r="B51">
         <v>328.15</v>
       </c>
@@ -3169,7 +3387,6 @@
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1">
-      <c r="A52" s="2"/>
       <c r="B52">
         <v>338.15</v>
       </c>
@@ -3178,7 +3395,6 @@
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1">
-      <c r="A53" s="2"/>
       <c r="B53">
         <v>348.15</v>
       </c>
@@ -3187,7 +3403,6 @@
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1">
-      <c r="A54" s="2"/>
       <c r="B54">
         <v>358.15</v>
       </c>
@@ -3196,7 +3411,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>80</v>
       </c>
       <c r="B55">
@@ -3207,7 +3422,6 @@
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1">
-      <c r="A56" s="2"/>
       <c r="B56">
         <v>318.14999999999998</v>
       </c>
@@ -3216,7 +3430,6 @@
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1">
-      <c r="A57" s="2"/>
       <c r="B57">
         <v>328.15</v>
       </c>
@@ -3225,7 +3438,6 @@
       </c>
     </row>
     <row r="58" spans="1:3" hidden="1">
-      <c r="A58" s="2"/>
       <c r="B58">
         <v>338.15</v>
       </c>
@@ -3234,7 +3446,6 @@
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1">
-      <c r="A59" s="2"/>
       <c r="B59">
         <v>348.15</v>
       </c>
@@ -3243,7 +3454,6 @@
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1">
-      <c r="A60" s="2"/>
       <c r="B60">
         <v>358.15</v>
       </c>
@@ -3252,7 +3462,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>87</v>
       </c>
       <c r="B61">
@@ -3263,7 +3473,6 @@
       </c>
     </row>
     <row r="62" spans="1:3" hidden="1">
-      <c r="A62" s="2"/>
       <c r="B62">
         <v>318.14999999999998</v>
       </c>
@@ -3272,7 +3481,6 @@
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1">
-      <c r="A63" s="2"/>
       <c r="B63">
         <v>328.15</v>
       </c>
@@ -3281,7 +3489,6 @@
       </c>
     </row>
     <row r="64" spans="1:3" hidden="1">
-      <c r="A64" s="2"/>
       <c r="B64">
         <v>338.15</v>
       </c>
@@ -3290,7 +3497,6 @@
       </c>
     </row>
     <row r="65" spans="1:3" hidden="1">
-      <c r="A65" s="2"/>
       <c r="B65">
         <v>348.15</v>
       </c>
@@ -3299,7 +3505,6 @@
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1">
-      <c r="A66" s="2"/>
       <c r="B66">
         <v>358.15</v>
       </c>
@@ -3308,7 +3513,6 @@
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1">
-      <c r="A67" s="2"/>
       <c r="B67">
         <v>368.15</v>
       </c>
@@ -3317,7 +3521,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>95</v>
       </c>
       <c r="B68">
@@ -3328,7 +3532,6 @@
       </c>
     </row>
     <row r="69" spans="1:3" hidden="1">
-      <c r="A69" s="2"/>
       <c r="B69">
         <v>303.14999999999998</v>
       </c>
@@ -3337,7 +3540,6 @@
       </c>
     </row>
     <row r="70" spans="1:3" hidden="1">
-      <c r="A70" s="2"/>
       <c r="B70">
         <v>308.14999999999998</v>
       </c>
@@ -3346,7 +3548,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>97</v>
       </c>
       <c r="B71">
@@ -3357,7 +3559,6 @@
       </c>
     </row>
     <row r="72" spans="1:3" hidden="1">
-      <c r="A72" s="2"/>
       <c r="B72">
         <v>313.14999999999998</v>
       </c>
@@ -3366,7 +3567,6 @@
       </c>
     </row>
     <row r="73" spans="1:3" hidden="1">
-      <c r="A73" s="2"/>
       <c r="B73">
         <v>328.15</v>
       </c>
@@ -3375,7 +3575,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>101</v>
       </c>
       <c r="B74">
@@ -3386,7 +3586,6 @@
       </c>
     </row>
     <row r="75" spans="1:3" hidden="1">
-      <c r="A75" s="2"/>
       <c r="B75">
         <v>318.14999999999998</v>
       </c>
@@ -3395,7 +3594,6 @@
       </c>
     </row>
     <row r="76" spans="1:3" hidden="1">
-      <c r="A76" s="2"/>
       <c r="B76">
         <v>328.15</v>
       </c>
@@ -3404,7 +3602,6 @@
       </c>
     </row>
     <row r="77" spans="1:3" hidden="1">
-      <c r="A77" s="2"/>
       <c r="B77">
         <v>338.15</v>
       </c>
@@ -3413,7 +3610,6 @@
       </c>
     </row>
     <row r="78" spans="1:3" hidden="1">
-      <c r="A78" s="2"/>
       <c r="B78">
         <v>348.15</v>
       </c>
@@ -3422,7 +3618,6 @@
       </c>
     </row>
     <row r="79" spans="1:3" hidden="1">
-      <c r="A79" s="2"/>
       <c r="B79">
         <v>358.15</v>
       </c>
@@ -3431,7 +3626,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>107</v>
       </c>
       <c r="B80">
@@ -3442,7 +3637,6 @@
       </c>
     </row>
     <row r="81" spans="1:3" hidden="1">
-      <c r="A81" s="2"/>
       <c r="B81">
         <v>328.15</v>
       </c>
@@ -3451,7 +3645,6 @@
       </c>
     </row>
     <row r="82" spans="1:3" hidden="1">
-      <c r="A82" s="2"/>
       <c r="B82">
         <v>333.15</v>
       </c>
@@ -3460,7 +3653,6 @@
       </c>
     </row>
     <row r="83" spans="1:3" hidden="1">
-      <c r="A83" s="2"/>
       <c r="B83">
         <v>338.15</v>
       </c>
@@ -3469,7 +3661,6 @@
       </c>
     </row>
     <row r="84" spans="1:3" hidden="1">
-      <c r="A84" s="2"/>
       <c r="B84">
         <v>343.15</v>
       </c>
@@ -3478,7 +3669,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>112</v>
       </c>
       <c r="B85">
@@ -3489,7 +3680,6 @@
       </c>
     </row>
     <row r="86" spans="1:3" hidden="1">
-      <c r="A86" s="2"/>
       <c r="B86">
         <v>318.14999999999998</v>
       </c>
@@ -3498,7 +3688,6 @@
       </c>
     </row>
     <row r="87" spans="1:3" hidden="1">
-      <c r="A87" s="2"/>
       <c r="B87">
         <v>328.15</v>
       </c>
@@ -3507,7 +3696,6 @@
       </c>
     </row>
     <row r="88" spans="1:3" hidden="1">
-      <c r="A88" s="2"/>
       <c r="B88">
         <v>338.15</v>
       </c>
@@ -3516,7 +3704,6 @@
       </c>
     </row>
     <row r="89" spans="1:3" hidden="1">
-      <c r="A89" s="2"/>
       <c r="B89">
         <v>348.15</v>
       </c>
@@ -3525,7 +3712,6 @@
       </c>
     </row>
     <row r="90" spans="1:3" hidden="1">
-      <c r="A90" s="2"/>
       <c r="B90">
         <v>358.15</v>
       </c>
@@ -3534,7 +3720,6 @@
       </c>
     </row>
     <row r="91" spans="1:3" hidden="1">
-      <c r="A91" s="2"/>
       <c r="B91">
         <v>368.15</v>
       </c>
@@ -3543,7 +3728,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>120</v>
       </c>
       <c r="B92">
@@ -3554,7 +3739,6 @@
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1">
-      <c r="A93" s="2"/>
       <c r="B93">
         <v>318.14999999999998</v>
       </c>
@@ -3563,7 +3747,6 @@
       </c>
     </row>
     <row r="94" spans="1:3" hidden="1">
-      <c r="A94" s="2"/>
       <c r="B94">
         <v>328.15</v>
       </c>
@@ -3572,7 +3755,6 @@
       </c>
     </row>
     <row r="95" spans="1:3" hidden="1">
-      <c r="A95" s="2"/>
       <c r="B95">
         <v>338.15</v>
       </c>
@@ -3581,7 +3763,6 @@
       </c>
     </row>
     <row r="96" spans="1:3" hidden="1">
-      <c r="A96" s="2"/>
       <c r="B96">
         <v>348.15</v>
       </c>
@@ -3590,7 +3771,6 @@
       </c>
     </row>
     <row r="97" spans="1:3" hidden="1">
-      <c r="A97" s="2"/>
       <c r="B97">
         <v>358.15</v>
       </c>
@@ -3599,7 +3779,6 @@
       </c>
     </row>
     <row r="98" spans="1:3" hidden="1">
-      <c r="A98" s="2"/>
       <c r="B98">
         <v>368.15</v>
       </c>
@@ -3608,7 +3787,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>126</v>
       </c>
       <c r="B99">
@@ -3619,7 +3798,6 @@
       </c>
     </row>
     <row r="100" spans="1:3" hidden="1">
-      <c r="A100" s="2"/>
       <c r="B100">
         <v>318.14999999999998</v>
       </c>
@@ -3628,7 +3806,6 @@
       </c>
     </row>
     <row r="101" spans="1:3" hidden="1">
-      <c r="A101" s="2"/>
       <c r="B101">
         <v>328.15</v>
       </c>
@@ -3637,7 +3814,6 @@
       </c>
     </row>
     <row r="102" spans="1:3" hidden="1">
-      <c r="A102" s="2"/>
       <c r="B102">
         <v>338.15</v>
       </c>
@@ -3646,7 +3822,6 @@
       </c>
     </row>
     <row r="103" spans="1:3" hidden="1">
-      <c r="A103" s="2"/>
       <c r="B103">
         <v>348.15</v>
       </c>
@@ -3655,7 +3830,6 @@
       </c>
     </row>
     <row r="104" spans="1:3" hidden="1">
-      <c r="A104" s="2"/>
       <c r="B104">
         <v>358.15</v>
       </c>
@@ -3664,7 +3838,6 @@
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1">
-      <c r="A105" s="2"/>
       <c r="B105">
         <v>368.15</v>
       </c>
@@ -3673,7 +3846,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>134</v>
       </c>
       <c r="B106">
@@ -3684,7 +3857,6 @@
       </c>
     </row>
     <row r="107" spans="1:3" hidden="1">
-      <c r="A107" s="2"/>
       <c r="B107">
         <v>308.14999999999998</v>
       </c>
@@ -3693,7 +3865,6 @@
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1">
-      <c r="A108" s="2"/>
       <c r="B108">
         <v>318.14999999999998</v>
       </c>
@@ -3702,7 +3873,6 @@
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1">
-      <c r="A109" s="2"/>
       <c r="B109">
         <v>328.15</v>
       </c>
@@ -3711,7 +3881,6 @@
       </c>
     </row>
     <row r="110" spans="1:3" hidden="1">
-      <c r="A110" s="2"/>
       <c r="B110">
         <v>338.15</v>
       </c>
@@ -3720,7 +3889,6 @@
       </c>
     </row>
     <row r="111" spans="1:3" hidden="1">
-      <c r="A111" s="2"/>
       <c r="B111">
         <v>348.15</v>
       </c>
@@ -3729,7 +3897,6 @@
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1">
-      <c r="A112" s="2"/>
       <c r="B112">
         <v>358.15</v>
       </c>
@@ -3738,7 +3905,6 @@
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1">
-      <c r="A113" s="2"/>
       <c r="B113">
         <v>368.15</v>
       </c>
@@ -3747,7 +3913,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>141</v>
       </c>
       <c r="B114">
@@ -3758,7 +3924,6 @@
       </c>
     </row>
     <row r="115" spans="1:3" hidden="1">
-      <c r="A115" s="2"/>
       <c r="B115">
         <v>308.14999999999998</v>
       </c>
@@ -3767,7 +3932,6 @@
       </c>
     </row>
     <row r="116" spans="1:3" hidden="1">
-      <c r="A116" s="2"/>
       <c r="B116">
         <v>313.14999999999998</v>
       </c>
@@ -3776,7 +3940,6 @@
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1">
-      <c r="A117" s="2"/>
       <c r="B117">
         <v>328.15</v>
       </c>
@@ -3785,7 +3948,6 @@
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1">
-      <c r="A118" s="2"/>
       <c r="B118">
         <v>333.15</v>
       </c>
@@ -3794,7 +3956,6 @@
       </c>
     </row>
     <row r="119" spans="1:3" hidden="1">
-      <c r="A119" s="2"/>
       <c r="B119">
         <v>338.15</v>
       </c>
@@ -3803,7 +3964,6 @@
       </c>
     </row>
     <row r="120" spans="1:3" hidden="1">
-      <c r="A120" s="2"/>
       <c r="B120">
         <v>348.15</v>
       </c>
@@ -3812,7 +3972,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" hidden="1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>148</v>
       </c>
       <c r="B121">
@@ -3823,7 +3983,6 @@
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1">
-      <c r="A122" s="2"/>
       <c r="B122">
         <v>332.65</v>
       </c>
@@ -3832,7 +3991,6 @@
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1">
-      <c r="A123" s="2"/>
       <c r="B123">
         <v>352.75</v>
       </c>
@@ -3841,7 +3999,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>149</v>
       </c>
       <c r="B124">
@@ -3852,7 +4010,6 @@
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1">
-      <c r="A125" s="2"/>
       <c r="B125">
         <v>332.55</v>
       </c>
@@ -3861,7 +4018,6 @@
       </c>
     </row>
     <row r="126" spans="1:3" hidden="1">
-      <c r="A126" s="2"/>
       <c r="B126">
         <v>352.65</v>
       </c>
@@ -3870,7 +4026,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" hidden="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" t="s">
         <v>150</v>
       </c>
       <c r="B127">
@@ -3881,7 +4037,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
+      <c r="A128" t="s">
         <v>151</v>
       </c>
       <c r="B128">
@@ -3892,7 +4048,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
+      <c r="A129" t="s">
         <v>152</v>
       </c>
       <c r="B129">
@@ -3903,7 +4059,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2" t="s">
+      <c r="A130" t="s">
         <v>153</v>
       </c>
       <c r="B130">
@@ -3914,7 +4070,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
+      <c r="A131" t="s">
         <v>154</v>
       </c>
       <c r="B131">
@@ -3925,7 +4081,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
+      <c r="A132" t="s">
         <v>155</v>
       </c>
       <c r="B132">
@@ -3936,7 +4092,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
+      <c r="A133" t="s">
         <v>156</v>
       </c>
       <c r="B133">
@@ -3947,7 +4103,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
+      <c r="A134" t="s">
         <v>157</v>
       </c>
       <c r="B134">
@@ -3958,7 +4114,7 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
+      <c r="A135" t="s">
         <v>158</v>
       </c>
       <c r="B135">
@@ -3969,7 +4125,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" hidden="1">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
         <v>159</v>
       </c>
       <c r="B136">
@@ -3980,7 +4136,6 @@
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1">
-      <c r="A137" s="2"/>
       <c r="B137">
         <v>323.14999999999998</v>
       </c>
@@ -3989,7 +4144,6 @@
       </c>
     </row>
     <row r="138" spans="1:3" hidden="1">
-      <c r="A138" s="2"/>
       <c r="B138">
         <v>333.15</v>
       </c>
@@ -3998,7 +4152,7 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
         <v>160</v>
       </c>
       <c r="B139">
@@ -4009,7 +4163,7 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
+      <c r="A140" t="s">
         <v>161</v>
       </c>
       <c r="B140">
@@ -4020,7 +4174,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>162</v>
       </c>
       <c r="B141">
@@ -4031,7 +4185,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>163</v>
       </c>
       <c r="B142">
@@ -4042,7 +4196,7 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
+      <c r="A143" t="s">
         <v>164</v>
       </c>
       <c r="B143">
@@ -4053,7 +4207,7 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
+      <c r="A144" t="s">
         <v>165</v>
       </c>
       <c r="B144">
@@ -4064,7 +4218,7 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>166</v>
       </c>
       <c r="B145">
@@ -4075,7 +4229,7 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>167</v>
       </c>
       <c r="B146">
@@ -4086,7 +4240,7 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>168</v>
       </c>
       <c r="B147">
@@ -4097,7 +4251,7 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
+      <c r="A148" t="s">
         <v>169</v>
       </c>
       <c r="B148">
@@ -4108,7 +4262,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>170</v>
       </c>
       <c r="B149">
@@ -4119,7 +4273,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" hidden="1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>171</v>
       </c>
       <c r="B150">
@@ -4130,7 +4284,6 @@
       </c>
     </row>
     <row r="151" spans="1:3" hidden="1">
-      <c r="A151" s="2"/>
       <c r="B151">
         <v>333.15</v>
       </c>
@@ -4139,7 +4292,6 @@
       </c>
     </row>
     <row r="152" spans="1:3" hidden="1">
-      <c r="A152" s="2"/>
       <c r="B152">
         <v>343.15</v>
       </c>
@@ -4148,7 +4300,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" hidden="1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" t="s">
         <v>172</v>
       </c>
       <c r="B153">
@@ -4159,7 +4311,6 @@
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1">
-      <c r="A154" s="2"/>
       <c r="B154">
         <v>312.64999999999998</v>
       </c>
@@ -4168,7 +4319,6 @@
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1">
-      <c r="A155" s="2"/>
       <c r="B155">
         <v>332.65</v>
       </c>
@@ -4177,7 +4327,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>173</v>
       </c>
       <c r="B156">
@@ -4188,7 +4338,6 @@
       </c>
     </row>
     <row r="157" spans="1:3" hidden="1">
-      <c r="A157" s="2"/>
       <c r="B157">
         <v>312.55</v>
       </c>
@@ -4197,7 +4346,6 @@
       </c>
     </row>
     <row r="158" spans="1:3" hidden="1">
-      <c r="A158" s="2"/>
       <c r="B158">
         <v>332.45</v>
       </c>
@@ -4254,7 +4402,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>180</v>
       </c>
       <c r="B2">
@@ -4277,7 +4425,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>181</v>
       </c>
       <c r="B3">
@@ -4300,7 +4448,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>182</v>
       </c>
       <c r="B4">
@@ -4323,7 +4471,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>183</v>
       </c>
       <c r="B5">
@@ -4346,7 +4494,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>184</v>
       </c>
       <c r="B6">
@@ -4369,7 +4517,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>185</v>
       </c>
       <c r="B7">
@@ -4392,7 +4540,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>186</v>
       </c>
       <c r="B8">
@@ -4415,7 +4563,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>187</v>
       </c>
       <c r="B9">
@@ -4438,7 +4586,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>188</v>
       </c>
       <c r="B10">
@@ -4461,7 +4609,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>189</v>
       </c>
       <c r="B11">
@@ -4484,7 +4632,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>190</v>
       </c>
       <c r="B12">

--- a/IL Data/IL Data.xlsx
+++ b/IL Data/IL Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kan\Documents\GitHub\SMILE_to_Feature\IL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E0E73-4C99-4E48-9D47-7264FDAE6261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A437FA-B682-4E3F-8298-6B6EDA3A683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA42A3CB-3CED-4FC6-98DC-A6630CE6366C}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="231">
   <si>
     <t>[BMIM]OAc-water (60-40 wt%) 298 1.011 126.156 124.783 26.97 727.38 090.76 093.24 
 [BMIM]OAc-water (60-40 wt%) 313 0.998 126.156 126.408 26.65 710.22 089.78 092.38 
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>marciniak2010.pdf</t>
+  </si>
+  <si>
+    <t>CCCCN1C=C[N+](=C1)C.CC1=CC=C(C=C1)S(=O)(=O)[O-]</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48153BF9-F4B1-4435-A50B-9968C54824D3}">
   <dimension ref="B3:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2519,6 +2522,9 @@
       </c>
       <c r="L48">
         <v>21.05</v>
+      </c>
+      <c r="N48" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="4:12">
